--- a/schedule-server/datasheet.xlsx
+++ b/schedule-server/datasheet.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\ScheduleAppWithWebServer\schedule-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C317BDF4-0A0A-4617-8799-18AA9DA0C21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F2B42-537A-4414-9A73-5D3FFDB441BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TitleSheet" sheetId="2" r:id="rId1"/>
+    <sheet name="To Klaipėda" sheetId="1" r:id="rId2"/>
+    <sheet name="To Smiltynė" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +36,24 @@
   </si>
   <si>
     <t>TimeMinutes</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>To Klaipėda</t>
+  </si>
+  <si>
+    <t>A ferry to Klaipėda from Smiltynė</t>
+  </si>
+  <si>
+    <t>To Smiltynė</t>
+  </si>
+  <si>
+    <t>A ferry to Smilynė from Klaipėda</t>
   </si>
 </sst>
 </file>
@@ -351,11 +371,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3FFB21-E2D4-4B3B-B431-08B9AE13271D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,6 +446,66 @@
         <v>9</v>
       </c>
       <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F83AD6-DE11-4313-8496-1B1983D57169}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>

--- a/schedule-server/datasheet.xlsx
+++ b/schedule-server/datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\ScheduleAppWithWebServer\schedule-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F2B42-537A-4414-9A73-5D3FFDB441BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2358FB9A-485C-44E5-9C03-73F5107480D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3FFB21-E2D4-4B3B-B431-08B9AE13271D}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,28 +384,37 @@
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
